--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9874750764.281635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003695934480167698</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.408592336651793</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9533015715453211</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.408592336651793</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5711185279.994725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004997966401385348</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.060314412051982</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9177578803129732</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.060314412051982</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4919038267.481452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002860697837174889</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.494476388840203</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.3287979746107146</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-4.494476388840203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4126864486.136014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003560709928118458</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.057774817422578</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8426937201054288</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.057774817422578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6149296658.778917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001894267829318748</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9037283776354216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.596215868549772</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.026144457922817</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.596215868549772</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6567364678.132814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001020330467971865</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.046627145536414</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9814578169682419</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.046627145536414</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5402113664.88726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003030324094757114</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.986231034758972</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9759779387372968</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.986231034758972</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6512202355.866434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00504641746085876</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.405354160422213</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9453824026496458</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.405354160422213</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3243347938.06764</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004144395770142613</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.056877288073667</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9476588926003991</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.056877288073667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4787987814.708819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0012066192340553</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.753996586042891</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7672759572147793</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.753996586042891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8476408268.965075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001925149470181392</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.169909453106614</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.027378912051964</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.169909453106614</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5134229182.387663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003656814556736921</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.054328825049426</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04560023488559</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.054328825049426</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9029291482.383444</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002660077704786951</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.465488612109599</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9074102246198794</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.465488612109599</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6136184619.185205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004081568741224163</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.197619774660865</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.958241614561124</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.197619774660865</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6222779048.439056</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005203538886746806</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.543624513585141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9261307393777753</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.543624513585141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4597102040.330524</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002233309210682431</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.996873140598953</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.977076373073843</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.996873140598953</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7249517839.146562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001086725279926193</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.292979652659954</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.006062124727224</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.292979652659954</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3926585385.984563</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001704711600858769</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.943127081331537</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8981488140506579</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.943127081331537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4343991038.575895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001347847388099028</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.675522968847631</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8419206709865017</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.675522968847631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6837765139.628456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005038042939145108</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.251803537898664</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8672812959777141</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.251803537898664</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5630138290.080003</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004054409328076803</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.314670493538</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9066923547013808</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.314670493538</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5926648182.153255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.002009226105635887</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9796776108532811</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.632392748745048</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.088177481065314</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.632392748745048</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6731974529.899661</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003909974011754338</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.581582704964181</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.007137123920284</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.581582704964181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6495239554.734318</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003731682641485117</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9492100228849469</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.534960324799095</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.145079878496595</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.534960324799095</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5389250796.463332</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00140226416958181</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8557451766997024</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.64050932944609</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9424968645265891</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.64050932944609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6177859253.242128</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003690337349728558</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.110026325205792</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9339773839434342</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.110026325205792</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5880026418.435077</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004960375909882202</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.501425958666019</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9261307393777753</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.501425958666019</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7695521394.244877</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001442589077918466</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.292164327999724</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.843560061493958</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5863565575809081</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.843560061493958</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8252148487.472341</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002960272946541428</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.13219627203336</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9055189726379199</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.13219627203336</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6917159604.918799</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003244317674360517</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.335343770484864</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9871303601085303</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.335343770484864</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3986044283.35747</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001086763707223097</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3208348788978858</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.761708274941423</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.5762736283518299</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.761708274941423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6780342855.483132</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.00221620363091233</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7281213907617391</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.568703864010164</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8874084157531643</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.568703864010164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6349372896.17519</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004363145667119728</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.357973361894182</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8416590904045386</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.357973361894182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4729363689.826813</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002330724725385555</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.071564739279602</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9781735739307049</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.071564739279602</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7925134526.065609</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003650532915263334</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.471227805020413</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.036529613692218</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.471227805020413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4740988220.251035</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005448150862487517</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.259324173413984</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.021732796330061</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.259324173413984</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4469379377.363502</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003808475183207993</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8034429916937361</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.180229658643518</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.016627304179238</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.180229658643518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6247649802.079896</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002880004282090031</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9615609438742367</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.669119136936605</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.074766251945615</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.669119136936605</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5834196022.189495</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004858093271904673</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.664931968675396</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.009264975223497</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.664931968675396</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6104598855.982475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001351989919206522</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.759320934293215</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9496881534405464</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.759320934293215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5586703236.042372</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004738223783007838</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.975427207236343</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.031546720511489</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.975427207236343</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6185471663.338827</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004409694481082538</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.85798052388638</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9575618529400303</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.85798052388638</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7194644485.953</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001599141546471006</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.206130505298706</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9510485174144974</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.206130505298706</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5916330663.969816</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00138632228768196</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.544861288784278</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9640409781674779</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.544861288784278</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7714122031.060603</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005041511722658915</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.287173681879607</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8378382924881322</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.287173681879607</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9320127753.311317</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002561880579694236</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.655490664305772</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9360363058015009</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.655490664305772</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5285574947.597268</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002917394591651603</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.258898541159688</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.002218383905785</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-5.258898541159688</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3720918781.040164</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004541171766286787</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.394168814878769</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.9007682288681715</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.394168814878769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7397990362.676528</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003885228633429848</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.283760065798845</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.057422664147153</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.283760065798845</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4919074865.19219</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004776884690930682</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.3408075766219277</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.153744537674288</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.5863061816104792</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.153744537674288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5915470997.663137</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001384321792782884</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7822701436661856</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.194678223595025</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9367164477812754</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.194678223595025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5724601590.761539</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003556310340496019</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.277100742173273</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9300623366576689</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.277100742173273</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4089092004.993301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005248965400958754</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9214948159521538</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.857039293988541</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.026082720372519</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.857039293988541</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5873163200.556779</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002807660190573539</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.253137221779404</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9265959444749501</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.253137221779404</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4884577414.817352</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001915420646908274</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.774042746687398</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9462936558138896</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.774042746687398</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5725585591.527045</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003865042948329407</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.695824963682957</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.867027366684015</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.695824963682957</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6808869719.446203</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002469745647738854</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7355325481081526</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.548981688700553</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8335010235472524</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.548981688700553</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7839209851.943744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002966668269697747</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.048300970263071</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8868492978113635</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.048300970263071</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4786088321.740502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002633334861785895</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.616408194248125</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8780912092909897</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.616408194248125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5142493228.068604</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004339850035171249</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
         <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.757835893882148</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9667096303014535</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.757835893882148</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5262964467.254304</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002618508159406195</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.84332509366314</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8839395767228908</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.84332509366314</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6282336846.9604</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005722669677509876</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.224262113307764</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9403848506458503</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.224262113307764</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4859097003.532151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003721878216228864</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.037101612197029</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9355757948352027</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.037101612197029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7524350312.185976</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004873738750097452</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.528233643317459</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.061273947761727</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.528233643317459</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5269083707.353457</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003722487206396785</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.298348173022686</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9149464602615262</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.298348173022686</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5694653742.974915</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004371780086006988</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.428872394199399</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9613550957914095</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.428872394199399</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7797315624.924536</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00205487190340864</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.54120695461654</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.341378805669116</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6591840338515548</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.341378805669116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5066134808.443792</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001158202082415821</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.811208093020287</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9938408652669839</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.811208093020287</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6989684356.626765</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003014233516713522</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.027566547397416</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9550883239772711</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-6.027566547397416</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5014565858.859957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003467111477287043</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7070130100648602</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.691438888854621</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8429205782951368</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.691438888854621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8207297873.450082</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002222128777571102</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.735241898093568</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.090586101916998</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.735241898093568</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8250799473.87373</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0008894552928460445</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.059023145692438</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.993407150959579</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.059023145692438</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5237681197.938876</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005150075153375525</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.19820431102261</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8815092577293658</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.19820431102261</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5604284424.91721</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002914580000535895</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.020128068044289</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8528159949502526</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.020128068044289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5487403771.467521</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002742254236965304</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.351276837594342</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.94833579535144</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.351276837594342</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6710784019.766046</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005295223865087675</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.250484119320511</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.039003010651015</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.250484119320511</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6170021127.874868</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003579754170850141</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.511283878829238</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9490122152876017</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.511283878829238</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5890276772.846204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002032942942454453</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.460462621749146</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.000506363348708</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.460462621749146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5351595307.450975</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002974673173967026</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.559273665585467</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9947077265552059</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.559273665585467</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7656934120.289875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004741641571065616</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.137048775226397</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.022351419750639</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.137048775226397</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6765876953.544428</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004613737013113925</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.616417371321893</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.973334698431345</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-4.616417371321893</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7563066895.557554</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003106355956111987</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.361818416823706</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7611098308420784</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.361818416823706</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6801628456.524327</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003567827119301212</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.059228644111414</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9667096303014535</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.059228644111414</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4365619998.134712</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002782565376553947</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.026573962067033</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9282172397298259</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.026573962067033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9188093691.517048</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002238584807399817</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1336517454498111</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.20064673859868</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-0.1694382705816508</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.20064673859868</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4915105661.945617</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001509706288868367</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>11</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.79394947727309</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9786236888017273</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.79394947727309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7964845741.906772</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004590950356698203</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7762609192866597</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.870412650414309</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8973323760249106</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.870412650414309</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6172464372.884057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004357563376791111</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.191499917284478</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9385600467667226</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.191499917284478</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7133216397.034099</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003370183193996241</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.01542039078399</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9362715191397667</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.01542039078399</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5140344060.825513</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003574703464372363</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.2080681502621</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8894913722660133</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.2080681502621</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4095352531.139347</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003783956451484658</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.335655463565524</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.048262304505652</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.335655463565524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5866597880.120196</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001911895208985227</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.491901670141401</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9557698448206441</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.491901670141401</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7233139743.044312</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001222719153400709</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.263623209599737</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.069526209898036</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.263623209599737</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4989168417.054824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.00286209691259104</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.011649699900534</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9593505137036257</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.011649699900534</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6096873113.014699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002756052517603149</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.859708458165979</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.919863372783042</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.859708458165979</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7553301887.18406</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004350031844501012</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.218769369628439</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.94129091011636</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.218769369628439</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7788399684.140535</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003547874328978887</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.55502639853135</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8974235357454349</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.55502639853135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2882245964.610434</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005481195480646728</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.8935854045677594</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.134604571698536</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.080007163399585</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.134604571698536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5998712649.002369</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002561604613486591</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6813154419817361</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.19385818485445</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8249363522036721</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.19385818485445</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7814411197.733451</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001145130504010396</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.370662898456678</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.134485051662627</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.370662898456678</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9874750764.281635</v>
+        <v>2158034574.869625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003695934480167698</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.07599329478231204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03196071998831645</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1079017304.201875</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5711185279.994725</v>
+        <v>2464593357.625218</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004997966401385348</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>0.1250859984829511</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03732918910046814</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1232296790.652852</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4919038267.481452</v>
+        <v>4378945011.415956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002860697837174889</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>0.1096594651479332</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02994871423391504</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2189472546.562933</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4126864486.136014</v>
+        <v>3306729969.904532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003560709928118458</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07122434951601285</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04331506424360147</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1653365034.339397</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6149296658.778917</v>
+        <v>2684696045.21702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001894267829318748</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.09821823186466287</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03807417720284536</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1342347977.937108</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6567364678.132814</v>
+        <v>3070030891.440636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001020330467971865</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.09574646339308358</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03010341585764268</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1535015403.653687</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5402113664.88726</v>
+        <v>3878288274.37373</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003030324094757114</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.1857502095202662</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02607002612585977</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1939144284.283976</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6512202355.866434</v>
+        <v>2011770933.690348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00504641746085876</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
+        <v>0.146136109502683</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02360990400362757</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1005885491.659419</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3243347938.06764</v>
+        <v>4262383198.93918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004144395770142613</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1993108379042501</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03833157064021771</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2131191641.501269</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4787987814.708819</v>
+        <v>3974772723.426932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0012066192340553</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.162050913808186</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03213889148204006</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1987386372.486825</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8476408268.965075</v>
+        <v>2726413834.0941</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001925149470181392</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
+        <v>0.1652606816472283</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04668657321326536</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1363206909.839276</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5134229182.387663</v>
+        <v>3243697956.708056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003656814556736921</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.06763521591151447</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02645276984995204</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1621849071.533735</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9029291482.383444</v>
+        <v>3121421172.084566</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002660077704786951</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>0.1778939518163128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02934024391288141</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1560710611.5165</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6136184619.185205</v>
+        <v>1365511103.395078</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004081568741224163</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.1057420377088905</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04321266152466539</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>682755606.5435793</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6222779048.439056</v>
+        <v>1974528523.018496</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005203538886746806</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
+        <v>0.1036457604693571</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04996439321645558</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>987264339.0932547</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4597102040.330524</v>
+        <v>3446367403.59035</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002233309210682431</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+        <v>0.1631989577225079</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04682861160009752</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1723183763.573708</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7249517839.146562</v>
+        <v>3693513393.459065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001086725279926193</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
+        <v>0.124019701361905</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03355729709559236</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1846756676.611799</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3926585385.984563</v>
+        <v>834560050.7012161</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001704711600858769</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1776453423127405</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01825781793879421</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>417280014.2151341</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2149947038.090863</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1474144379289196</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02233023339000697</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>4</v>
       </c>
-      <c r="D20" t="n">
-        <v>508</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4343991038.575895</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001347847388099028</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="J20" t="n">
+        <v>1074973529.243393</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6837765139.628456</v>
+        <v>1971814142.209781</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005038042939145108</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+        <v>0.09859575279918295</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02835614466417462</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>985907109.5790687</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5630138290.080003</v>
+        <v>3437622532.845962</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004054409328076803</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
+        <v>0.1418839735005499</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05510723984800076</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1718811301.575243</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5926648182.153255</v>
+        <v>1522654262.291426</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002009226105635887</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1580253875623974</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0448191283589465</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>761327113.0612493</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6731974529.899661</v>
+        <v>4058897032.522548</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003909974011754338</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1058078848940544</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02726910552636376</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2029448480.10665</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6495239554.734318</v>
+        <v>1258830458.07356</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003731682641485117</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
+        <v>0.1184366842183956</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02651455514841738</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>629415233.288041</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5389250796.463332</v>
+        <v>1431886219.260597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00140226416958181</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1011390719002629</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02403963570559368</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>715943187.2750161</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6177859253.242128</v>
+        <v>4194489505.261153</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003690337349728558</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11</v>
+        <v>0.1152001869257515</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02233695524242853</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2097244752.939495</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5880026418.435077</v>
+        <v>3203537811.394972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004960375909882202</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
+        <v>0.1180329089142519</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04065878836995576</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1601768934.445271</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7695521394.244877</v>
+        <v>4434251718.56679</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001442589077918466</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
+        <v>0.1244166227646635</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04617391580918258</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2217125845.880806</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8252148487.472341</v>
+        <v>1751791434.035291</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002960272946541428</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>12</v>
+        <v>0.1151592388688699</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03971609870584254</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>875895726.0824286</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6917159604.918799</v>
+        <v>1269525430.26169</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003244317674360517</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
+        <v>0.06991603442612862</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04729121996990487</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>634762650.0641755</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3986044283.35747</v>
+        <v>1470445373.838786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001086763707223097</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1019506755819006</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03409383525925209</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>735222748.9461162</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6780342855.483132</v>
+        <v>1943771508.358831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00221620363091233</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>0.1570550476085537</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03865888944598447</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>971885839.5730557</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6349372896.17519</v>
+        <v>1410603081.506204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004363145667119728</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>12</v>
+        <v>0.08739918531154242</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02475716053088711</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>705301511.0763266</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4729363689.826813</v>
+        <v>913011180.5130277</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002330724725385555</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.09410665259428859</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03333877316900487</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>456505627.7605144</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7925134526.065609</v>
+        <v>2015335352.237844</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003650532915263334</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
+        <v>0.1215236754260132</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02625398941558965</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1007667736.765883</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4740988220.251035</v>
+        <v>2777212178.67415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005448150862487517</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
+        <v>0.09879605669889395</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03491508831555028</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1388606223.36858</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4469379377.363502</v>
+        <v>1925470156.797609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003808475183207993</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1057831015111915</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03257559479429281</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>962735067.3904766</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6247649802.079896</v>
+        <v>1639530280.230911</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002880004282090031</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1528125228777368</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02387645589843618</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>819765189.1992098</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5834196022.189495</v>
+        <v>1331451450.24808</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004858093271904673</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1128857633414982</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05498987547510263</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>665725733.3625199</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2797621922.621931</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1284043136876476</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03956493489264253</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="D41" t="n">
-        <v>540</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6104598855.982475</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.001351989919206522</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
+      <c r="I41" t="n">
+        <v>11</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1398810957.331032</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5586703236.042372</v>
+        <v>3669379763.265531</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004738223783007838</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
+        <v>0.09513798643731412</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03527057329054532</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1834689887.9803</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6185471663.338827</v>
+        <v>2069747597.769154</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004409694481082538</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
+        <v>0.1981176387507132</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02335201224751272</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1034873890.597325</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7194644485.953</v>
+        <v>1675891343.598334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001599141546471006</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
+        <v>0.07040791576226525</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03650427635630567</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>837945713.3129199</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5916330663.969816</v>
+        <v>1816250844.823256</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00138632228768196</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1532546142515533</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04230660023653901</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>908125394.5930684</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7714122031.060603</v>
+        <v>4889903383.458968</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005041511722658915</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+        <v>0.1436859300613602</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06007621903410799</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2444951712.056668</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9320127753.311317</v>
+        <v>3195441526.682618</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002561880579694236</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1683934680185138</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04605743146808319</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1597720716.692725</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5285574947.597268</v>
+        <v>3609842166.566888</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002917394591651603</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.06691826561030428</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03021531930903828</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1804921140.138883</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3720918781.040164</v>
+        <v>1774278066.095377</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004541171766286787</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1305779735765401</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03795441567300491</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>887139022.2641104</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7397990362.676528</v>
+        <v>3211267885.544661</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003885228633429848</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.149855459372265</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03247536250653459</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1605633987.398118</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4919074865.19219</v>
+        <v>1353959276.055812</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004776884690930682</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1454924090101556</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04549896319923574</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>676979664.4777383</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5915470997.663137</v>
+        <v>3485696849.642034</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001384321792782884</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
+        <v>0.09917452728513768</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0585044467611026</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1742848511.410264</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5724601590.761539</v>
+        <v>2410095839.156966</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003556310340496019</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+        <v>0.1759374261624913</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02524902708504332</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1205047992.590594</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4089092004.993301</v>
+        <v>3216149382.241182</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005248965400958754</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.1173838778530476</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0443625050457075</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1608074693.495518</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5873163200.556779</v>
+        <v>4659372078.564173</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002807660190573539</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>12</v>
+        <v>0.2154604473802062</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03045033188095055</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2329686043.054444</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4884577414.817352</v>
+        <v>1711447377.49222</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001915420646908274</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1449564250334038</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05729537034850012</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>855723699.5003748</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5725585591.527045</v>
+        <v>3370134643.899253</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003865042948329407</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1526040901262886</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.019186555122067</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1685067357.270065</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6808869719.446203</v>
+        <v>1513479293.058618</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002469745647738854</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1255977905099316</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03627182796964209</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>756739676.2835084</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7839209851.943744</v>
+        <v>3283223708.963592</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002966668269697747</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1067381807070765</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04348738161160358</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1641611864.780871</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4786088321.740502</v>
+        <v>2280636621.527167</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002633334861785895</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1486862418913616</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02442199618002749</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1140318305.539476</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5142493228.068604</v>
+        <v>2780839491.704248</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004339850035171249</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.109681022403082</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02242062379667651</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1390419746.818962</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5262964467.254304</v>
+        <v>1888108855.581066</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002618508159406195</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
+        <v>0.1485974894363047</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03168848890113275</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>944054468.8725708</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6282336846.9604</v>
+        <v>5408040798.910001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005722669677509876</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.06825176750094061</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04530982999358957</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>9</v>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2704020398.818429</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4859097003.532151</v>
+        <v>4809716150.029686</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003721878216228864</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.147462716673707</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02438264005273051</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2404858167.655214</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5883002932.377852</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1608079312352855</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02148580788349238</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7524350312.185976</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.004873738750097452</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2941501372.280515</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5269083707.353457</v>
+        <v>3850552546.621027</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003722487206396785</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1123418482473697</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04574946778280083</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1925276238.678246</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5694653742.974915</v>
+        <v>2885445965.523943</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004371780086006988</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09018640548569727</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0442105992825179</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1442723010.569782</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7797315624.924536</v>
+        <v>4199769164.151382</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00205487190340864</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
+        <v>0.09961697367666546</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03413475322901588</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2099884589.80285</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5066134808.443792</v>
+        <v>1656968212.018287</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001158202082415821</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1253995588468295</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04001974817147856</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>828484066.42855</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6989684356.626765</v>
+        <v>3206218745.030169</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003014233516713522</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
+        <v>0.0960469667856868</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03112554879509665</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1603109362.78679</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5014565858.859957</v>
+        <v>5410742687.166938</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003467111477287043</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1494691207757429</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02715661606277628</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2705371479.741774</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8207297873.450082</v>
+        <v>2007463422.718652</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002222128777571102</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
+        <v>0.07131718170151481</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03922665936117719</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1003731656.334325</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8250799473.87373</v>
+        <v>2783052214.466919</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0008894552928460445</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
+        <v>0.09291869297590229</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03355499078131818</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1391526122.884747</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5237681197.938876</v>
+        <v>2497834840.143395</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005150075153375525</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1393606310894895</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02784709948422129</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1248917528.713509</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5604284424.91721</v>
+        <v>1900750266.078125</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002914580000535895</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.116668664978266</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02608181146922805</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>950375106.3413537</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5487403771.467521</v>
+        <v>3412424762.247491</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002742254236965304</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
+        <v>0.08649075686133577</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02399561628065389</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1706212340.996378</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6710784019.766046</v>
+        <v>2075117424.110858</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005295223865087675</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1760965620332665</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02020124882770681</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1037558784.523421</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6170021127.874868</v>
+        <v>3539274717.014392</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003579754170850141</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.123901310089252</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05028397921200711</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1769637357.051467</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5890276772.846204</v>
+        <v>1835793302.600673</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002032942942454453</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1320909668197675</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03468796904288088</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>917896744.0797825</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5351595307.450975</v>
+        <v>3740517206.852779</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002974673173967026</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.07451608035773755</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03070151902496873</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1870258589.842898</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7656934120.289875</v>
+        <v>4971408273.366619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004741641571065616</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.1085629986797673</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02554143270815862</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2485704135.825259</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6765876953.544428</v>
+        <v>4480263295.682579</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004613737013113925</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1974123444882253</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02201452562260357</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2240131660.658345</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7563066895.557554</v>
+        <v>2150945200.264935</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003106355956111987</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>11</v>
+        <v>0.1239007186071564</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03755664759313624</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1075472604.08889</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6801628456.524327</v>
+        <v>2560404412.439582</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003567827119301212</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>10</v>
+        <v>0.1098634834242547</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04135773596611149</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1280202128.971608</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4365619998.134712</v>
+        <v>2684617570.610611</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002782565376553947</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1698283423682369</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03558863597082236</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1342308810.464308</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9188093691.517048</v>
+        <v>2581627837.315941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002238584807399817</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>11</v>
+        <v>0.1682278644489714</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02068891112435286</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1290814026.959077</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4915105661.945617</v>
+        <v>1168242158.985558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001509706288868367</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1785148332785702</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0272224283915695</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>584121126.782397</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7964845741.906772</v>
+        <v>2464517186.597438</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004590950356698203</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.111503830171525</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03820173737255578</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1232258570.638337</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6172464372.884057</v>
+        <v>2437784298.934093</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004357563376791111</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
+        <v>0.1258229739260263</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0385469667076505</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1218892228.633442</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7133216397.034099</v>
+        <v>1356614440.528954</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003370183193996241</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.1098914559340864</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03764480131944885</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>678307172.5245358</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5140344060.825513</v>
+        <v>1839351700.566914</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003574703464372363</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.1906835818699981</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05603573818472558</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>919675843.7895039</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4095352531.139347</v>
+        <v>2281864976.532745</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003783956451484658</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06964838181873041</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04698359369441803</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1140932455.555232</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5866597880.120196</v>
+        <v>3686722642.071789</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001911895208985227</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>13</v>
+        <v>0.1268752975249335</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04363536320160568</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1843361341.719365</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7233139743.044312</v>
+        <v>1744771481.255534</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001222719153400709</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>13</v>
+        <v>0.1042092995960916</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04227407229473082</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>872385705.5598027</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4989168417.054824</v>
+        <v>3113509532.008542</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00286209691259104</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.09904392388370553</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0336574698071553</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1556754757.361533</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6096873113.014699</v>
+        <v>2292210676.08503</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002756052517603149</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
+        <v>0.13716595354697</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04190590369661908</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1146105293.66658</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7553301887.18406</v>
+        <v>3640953228.048976</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004350031844501012</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>9</v>
+        <v>0.1431259468971696</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02348442298120612</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1820476641.377488</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7788399684.140535</v>
+        <v>2944552431.270531</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003547874328978887</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>14</v>
+        <v>0.1301106215650196</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02849468775062538</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1472276196.388121</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2882245964.610434</v>
+        <v>3199399507.30925</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005481195480646728</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1228709725506272</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02997697856690474</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1599699753.936962</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5998712649.002369</v>
+        <v>3348922100.891579</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002561604613486591</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1500818325005651</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02704412609139237</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1674461068.99287</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7814411197.733451</v>
+        <v>2730894071.279128</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001145130504010396</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>12</v>
+        <v>0.1777775325864731</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05030333344181436</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1365447088.949435</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2158034574.869625</v>
+        <v>2007418067.260484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07599329478231204</v>
+        <v>0.09772491441822762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03196071998831645</v>
+        <v>0.03318914759876031</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1079017304.201875</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2464593357.625218</v>
+        <v>1724581872.132186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1250859984829511</v>
+        <v>0.1390270691607784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03732918910046814</v>
+        <v>0.04834569173255702</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1232296790.652852</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4378945011.415956</v>
+        <v>3894831912.465723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1096594651479332</v>
+        <v>0.1071051873322721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02994871423391504</v>
+        <v>0.035370154478975</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2189472546.562933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3306729969.904532</v>
+        <v>2565867029.170779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07122434951601285</v>
+        <v>0.1045163417750029</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04331506424360147</v>
+        <v>0.03763707000929158</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1653365034.339397</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2684696045.21702</v>
+        <v>2666038321.105987</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09821823186466287</v>
+        <v>0.1356425092678193</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03807417720284536</v>
+        <v>0.04995897337365809</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1342347977.937108</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3070030891.440636</v>
+        <v>2856420571.448205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09574646339308358</v>
+        <v>0.1012192146879747</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03010341585764268</v>
+        <v>0.04354258238174713</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1535015403.653687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3878288274.37373</v>
+        <v>2983065093.328042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1857502095202662</v>
+        <v>0.1777262093546476</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02607002612585977</v>
+        <v>0.02536383246898627</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1939144284.283976</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2011770933.690348</v>
+        <v>1923160905.901235</v>
       </c>
       <c r="F9" t="n">
-        <v>0.146136109502683</v>
+        <v>0.1292018860652119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02360990400362757</v>
+        <v>0.0365773296098186</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1005885491.659419</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4262383198.93918</v>
+        <v>5357813551.387053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1993108379042501</v>
+        <v>0.1516063194731432</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03833157064021771</v>
+        <v>0.03821853652999618</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2131191641.501269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3974772723.426932</v>
+        <v>3700351801.156786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.162050913808186</v>
+        <v>0.1421431164914922</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03213889148204006</v>
+        <v>0.0404090019890214</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1987386372.486825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2726413834.0941</v>
+        <v>2412578933.976859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1652606816472283</v>
+        <v>0.1746187128322529</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04668657321326536</v>
+        <v>0.04533609816534687</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1363206909.839276</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3243697956.708056</v>
+        <v>3420372490.702896</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06763521591151447</v>
+        <v>0.09272513931086257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02645276984995204</v>
+        <v>0.02131722705868276</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1621849071.533735</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3121421172.084566</v>
+        <v>3530412068.14861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1778939518163128</v>
+        <v>0.1275511832815618</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02934024391288141</v>
+        <v>0.03461834066564962</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1560710611.5165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1365511103.395078</v>
+        <v>1194717036.093783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1057420377088905</v>
+        <v>0.08342904665184589</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04321266152466539</v>
+        <v>0.03665883872838439</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>682755606.5435793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1974528523.018496</v>
+        <v>2074858338.58498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1036457604693571</v>
+        <v>0.08787470615980723</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04996439321645558</v>
+        <v>0.03244524414615172</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>987264339.0932547</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3446367403.59035</v>
+        <v>4345175141.45701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1631989577225079</v>
+        <v>0.153356068181747</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04682861160009752</v>
+        <v>0.04130368496780076</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1723183763.573708</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3693513393.459065</v>
+        <v>2461201033.459961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124019701361905</v>
+        <v>0.1328732596477141</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03355729709559236</v>
+        <v>0.02912444642487896</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1846756676.611799</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>834560050.7012161</v>
+        <v>1334792706.784634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1776453423127405</v>
+        <v>0.1451767646349645</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01825781793879421</v>
+        <v>0.02107191926928638</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>417280014.2151341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2149947038.090863</v>
+        <v>1954244437.192962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1474144379289196</v>
+        <v>0.102038945963183</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02233023339000697</v>
+        <v>0.02439327446907268</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1074973529.243393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1971814142.209781</v>
+        <v>2433933654.306795</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09859575279918295</v>
+        <v>0.08734616140259377</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02835614466417462</v>
+        <v>0.04613743451566271</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>985907109.5790687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3437622532.845962</v>
+        <v>4034253815.566237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1418839735005499</v>
+        <v>0.140148656341375</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05510723984800076</v>
+        <v>0.03613667045419137</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1718811301.575243</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1522654262.291426</v>
+        <v>1420742289.423065</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1580253875623974</v>
+        <v>0.1833162454259895</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0448191283589465</v>
+        <v>0.04320984916117358</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>761327113.0612493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4058897032.522548</v>
+        <v>2782337983.658746</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1058078848940544</v>
+        <v>0.1223820113068735</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02726910552636376</v>
+        <v>0.0275508813125915</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2029448480.10665</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1258830458.07356</v>
+        <v>1398658070.653778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1184366842183956</v>
+        <v>0.1030720487656201</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02651455514841738</v>
+        <v>0.03002713100876569</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>629415233.288041</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1431886219.260597</v>
+        <v>923318831.1988933</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1011390719002629</v>
+        <v>0.1093741231045186</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02403963570559368</v>
+        <v>0.03631576910387817</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>715943187.2750161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4194489505.261153</v>
+        <v>3327361495.261481</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1152001869257515</v>
+        <v>0.1287707179854113</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02233695524242853</v>
+        <v>0.02152062194294119</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2097244752.939495</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3203537811.394972</v>
+        <v>2819482551.364919</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1180329089142519</v>
+        <v>0.09466515696203896</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04065878836995576</v>
+        <v>0.03026893395655773</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1601768934.445271</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4434251718.56679</v>
+        <v>5380971884.261066</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1244166227646635</v>
+        <v>0.09915685000686281</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04617391580918258</v>
+        <v>0.03168100802291697</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2217125845.880806</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1751791434.035291</v>
+        <v>1613136504.83822</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1151592388688699</v>
+        <v>0.1317686396247822</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03971609870584254</v>
+        <v>0.03194750095986305</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>875895726.0824286</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1269525430.26169</v>
+        <v>1289526143.802684</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06991603442612862</v>
+        <v>0.1070911789871774</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04729121996990487</v>
+        <v>0.05225813067349203</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>634762650.0641755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1470445373.838786</v>
+        <v>1695865864.067148</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1019506755819006</v>
+        <v>0.09699869589593174</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03409383525925209</v>
+        <v>0.03115793801587306</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>735222748.9461162</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1943771508.358831</v>
+        <v>2812936101.540385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1570550476085537</v>
+        <v>0.1351537045178817</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03865888944598447</v>
+        <v>0.04183647871594678</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>971885839.5730557</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1410603081.506204</v>
+        <v>995115043.317387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08739918531154242</v>
+        <v>0.1156007551132285</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02475716053088711</v>
+        <v>0.02587006310690859</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>705301511.0763266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913011180.5130277</v>
+        <v>1176900462.862905</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09410665259428859</v>
+        <v>0.0751053553932654</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03333877316900487</v>
+        <v>0.02980495686404203</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>456505627.7605144</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2015335352.237844</v>
+        <v>1987484087.764236</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1215236754260132</v>
+        <v>0.1433049920185242</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02625398941558965</v>
+        <v>0.02566352929438743</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1007667736.765883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777212178.67415</v>
+        <v>2701493557.081553</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09879605669889395</v>
+        <v>0.106082382875789</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03491508831555028</v>
+        <v>0.03710509528575086</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1388606223.36858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1925470156.797609</v>
+        <v>1459985958.562039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1057831015111915</v>
+        <v>0.07987470993687805</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03257559479429281</v>
+        <v>0.02666854751152028</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>962735067.3904766</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1639530280.230911</v>
+        <v>1429511580.485313</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1528125228777368</v>
+        <v>0.1341898214986992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02387645589843618</v>
+        <v>0.02054214665747371</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>819765189.1992098</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1331451450.24808</v>
+        <v>1543959310.372146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1128857633414982</v>
+        <v>0.1472833970059364</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05498987547510263</v>
+        <v>0.03657647842186623</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>665725733.3625199</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2797621922.621931</v>
+        <v>2525982308.233492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1284043136876476</v>
+        <v>0.1313988124843428</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03956493489264253</v>
+        <v>0.03994423440640013</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1398810957.331032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3669379763.265531</v>
+        <v>3072658412.395154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09513798643731412</v>
+        <v>0.1103627249974839</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03527057329054532</v>
+        <v>0.02826059516317554</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1834689887.9803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2069747597.769154</v>
+        <v>3076204091.333443</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1981176387507132</v>
+        <v>0.1843757631094337</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02335201224751272</v>
+        <v>0.01730451167248225</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1034873890.597325</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1675891343.598334</v>
+        <v>1620069825.054167</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07040791576226525</v>
+        <v>0.06228210411388369</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03650427635630567</v>
+        <v>0.0299704379777958</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>837945713.3129199</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1816250844.823256</v>
+        <v>1716209358.623437</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1532546142515533</v>
+        <v>0.1349385921028382</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04230660023653901</v>
+        <v>0.03973679465597519</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>908125394.5930684</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4889903383.458968</v>
+        <v>4460649709.490699</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1436859300613602</v>
+        <v>0.1255266926555458</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06007621903410799</v>
+        <v>0.0456280840205151</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2444951712.056668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3195441526.682618</v>
+        <v>3133484349.006784</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1683934680185138</v>
+        <v>0.1547742398408337</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04605743146808319</v>
+        <v>0.04085825181500294</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1597720716.692725</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3609842166.566888</v>
+        <v>3879966101.536937</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06691826561030428</v>
+        <v>0.1002912561583701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03021531930903828</v>
+        <v>0.03289999039842832</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1804921140.138883</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1774278066.095377</v>
+        <v>1923310015.718318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1305779735765401</v>
+        <v>0.1856657690030649</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03795441567300491</v>
+        <v>0.02874516632624059</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>887139022.2641104</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3211267885.544661</v>
+        <v>3710661583.630011</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149855459372265</v>
+        <v>0.1726326020412456</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03247536250653459</v>
+        <v>0.04901021988420428</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1605633987.398118</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1353959276.055812</v>
+        <v>938995490.365221</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1454924090101556</v>
+        <v>0.1649351774088961</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04549896319923574</v>
+        <v>0.03637792677319881</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>676979664.4777383</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3485696849.642034</v>
+        <v>4655259760.835409</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09917452728513768</v>
+        <v>0.1155436991667063</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0585044467611026</v>
+        <v>0.05943466152245418</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1742848511.410264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2410095839.156966</v>
+        <v>3527143872.008528</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1759374261624913</v>
+        <v>0.1356013244276362</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02524902708504332</v>
+        <v>0.02501774789608823</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1205047992.590594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3216149382.241182</v>
+        <v>4338229773.929186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1173838778530476</v>
+        <v>0.1130662697922025</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0443625050457075</v>
+        <v>0.04708372231480228</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1608074693.495518</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4659372078.564173</v>
+        <v>4746791405.086514</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2154604473802062</v>
+        <v>0.1737602814268742</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03045033188095055</v>
+        <v>0.02832615310214416</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2329686043.054444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1711447377.49222</v>
+        <v>1224962210.918075</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1449564250334038</v>
+        <v>0.1030322601285367</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05729537034850012</v>
+        <v>0.05129485670456727</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>855723699.5003748</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3370134643.899253</v>
+        <v>4221818649.836433</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1526040901262886</v>
+        <v>0.1450043365341144</v>
       </c>
       <c r="G57" t="n">
-        <v>0.019186555122067</v>
+        <v>0.01763713523638512</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1685067357.270065</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1513479293.058618</v>
+        <v>1744210007.737759</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1255977905099316</v>
+        <v>0.1395697229950509</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03627182796964209</v>
+        <v>0.03521081720030145</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>756739676.2835084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3283223708.963592</v>
+        <v>3780869958.291242</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1067381807070765</v>
+        <v>0.126006931837245</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04348738161160358</v>
+        <v>0.04436951020079623</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1641611864.780871</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2280636621.527167</v>
+        <v>3603684522.288718</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1486862418913616</v>
+        <v>0.1847352714307623</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02442199618002749</v>
+        <v>0.02784615326032618</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1140318305.539476</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2780839491.704248</v>
+        <v>2348328281.138674</v>
       </c>
       <c r="F61" t="n">
-        <v>0.109681022403082</v>
+        <v>0.1683115827256979</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02242062379667651</v>
+        <v>0.02805201560923278</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1390419746.818962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1888108855.581066</v>
+        <v>2065558067.077058</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1485974894363047</v>
+        <v>0.1182162613153646</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03168848890113275</v>
+        <v>0.04534033118225086</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>944054468.8725708</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5408040798.910001</v>
+        <v>3745777502.160646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06825176750094061</v>
+        <v>0.07946371757650954</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04530982999358957</v>
+        <v>0.03888245226520903</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2704020398.818429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4809716150.029686</v>
+        <v>3922580561.232563</v>
       </c>
       <c r="F64" t="n">
-        <v>0.147462716673707</v>
+        <v>0.1514152349431119</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02438264005273051</v>
+        <v>0.03089701522623596</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2404858167.655214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5883002932.377852</v>
+        <v>5892848448.649546</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1608079312352855</v>
+        <v>0.1203688237250242</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02148580788349238</v>
+        <v>0.01946718539949461</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2941501372.280515</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3850552546.621027</v>
+        <v>3536675213.326254</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1123418482473697</v>
+        <v>0.1166886228482984</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04574946778280083</v>
+        <v>0.03874651705688138</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1925276238.678246</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2885445965.523943</v>
+        <v>2676941447.556998</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09018640548569727</v>
+        <v>0.07441892468944659</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0442105992825179</v>
+        <v>0.03758520508774563</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1442723010.569782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4199769164.151382</v>
+        <v>4347706612.985641</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09961697367666546</v>
+        <v>0.1103065248555653</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03413475322901588</v>
+        <v>0.04957132026181697</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2099884589.80285</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1656968212.018287</v>
+        <v>1587237650.326737</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1253995588468295</v>
+        <v>0.1828973043656701</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04001974817147856</v>
+        <v>0.04673835871783411</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>828484066.42855</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3206218745.030169</v>
+        <v>2662408422.977983</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0960469667856868</v>
+        <v>0.08775249960665307</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03112554879509665</v>
+        <v>0.03990157944677196</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1603109362.78679</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5410742687.166938</v>
+        <v>5648494340.426639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1494691207757429</v>
+        <v>0.1131094794775168</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02715661606277628</v>
+        <v>0.02354915875063752</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2705371479.741774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2007463422.718652</v>
+        <v>2126041420.611212</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07131718170151481</v>
+        <v>0.0982619321693992</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03922665936117719</v>
+        <v>0.04541809823738712</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1003731656.334325</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2783052214.466919</v>
+        <v>3411127574.307519</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09291869297590229</v>
+        <v>0.1067995231978157</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03355499078131818</v>
+        <v>0.04877945756185458</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1391526122.884747</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2497834840.143395</v>
+        <v>3761233176.146199</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1393606310894895</v>
+        <v>0.1483016458585122</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02784709948422129</v>
+        <v>0.03076995957391858</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1248917528.713509</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1900750266.078125</v>
+        <v>2392096015.479014</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116668664978266</v>
+        <v>0.1158331621249483</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02608181146922805</v>
+        <v>0.03402926082057092</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>950375106.3413537</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3412424762.247491</v>
+        <v>4697087019.029202</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08649075686133577</v>
+        <v>0.1064606577005329</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02399561628065389</v>
+        <v>0.03151536547382685</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1706212340.996378</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2075117424.110858</v>
+        <v>1449626608.024913</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1760965620332665</v>
+        <v>0.1836515920064787</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02020124882770681</v>
+        <v>0.02928534757192819</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1037558784.523421</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3539274717.014392</v>
+        <v>4680904912.745413</v>
       </c>
       <c r="F78" t="n">
-        <v>0.123901310089252</v>
+        <v>0.08767951080131824</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05028397921200711</v>
+        <v>0.03781206028726908</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1769637357.051467</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1835793302.600673</v>
+        <v>1195893922.225399</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320909668197675</v>
+        <v>0.1731088426365143</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03468796904288088</v>
+        <v>0.02593686382444505</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>917896744.0797825</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3740517206.852779</v>
+        <v>3399136303.14053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07451608035773755</v>
+        <v>0.1016445133639153</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03070151902496873</v>
+        <v>0.03608448906678442</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1870258589.842898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4971408273.366619</v>
+        <v>3305831307.102528</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1085629986797673</v>
+        <v>0.09239561762886858</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02554143270815862</v>
+        <v>0.03075384778701395</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2485704135.825259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4480263295.682579</v>
+        <v>5630629249.816132</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1974123444882253</v>
+        <v>0.1874661622352731</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02201452562260357</v>
+        <v>0.02735241669569219</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2240131660.658345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2150945200.264935</v>
+        <v>2151978937.660426</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239007186071564</v>
+        <v>0.1216182899012251</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03755664759313624</v>
+        <v>0.03054357821775901</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1075472604.08889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2560404412.439582</v>
+        <v>1972100384.267602</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1098634834242547</v>
+        <v>0.1036205823910385</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04135773596611149</v>
+        <v>0.03692804222943546</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1280202128.971608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2684617570.610611</v>
+        <v>2650319880.843085</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1698283423682369</v>
+        <v>0.1393862553425385</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03558863597082236</v>
+        <v>0.04932829353339773</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1342308810.464308</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2581627837.315941</v>
+        <v>2417559002.097472</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1682278644489714</v>
+        <v>0.1315944498696449</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02068891112435286</v>
+        <v>0.01902215972754481</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1290814026.959077</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1168242158.985558</v>
+        <v>1432545369.567738</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1785148332785702</v>
+        <v>0.1855625655327868</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0272224283915695</v>
+        <v>0.04403887450339721</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>584121126.782397</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2464517186.597438</v>
+        <v>3434069509.271012</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111503830171525</v>
+        <v>0.1331307532140494</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03820173737255578</v>
+        <v>0.03328120859215153</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1232258570.638337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2437784298.934093</v>
+        <v>2799831880.145253</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1258229739260263</v>
+        <v>0.1270631850960997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0385469667076505</v>
+        <v>0.03684244365540269</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1218892228.633442</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1356614440.528954</v>
+        <v>1565420221.01636</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1098914559340864</v>
+        <v>0.08502652652491968</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03764480131944885</v>
+        <v>0.03497914528087666</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>678307172.5245358</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1839351700.566914</v>
+        <v>1881969210.563189</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1906835818699981</v>
+        <v>0.1630284232559275</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05603573818472558</v>
+        <v>0.05657110930592723</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>919675843.7895039</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2281864976.532745</v>
+        <v>2296023874.363894</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06964838181873041</v>
+        <v>0.07079952409230725</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04698359369441803</v>
+        <v>0.04708473286673068</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1140932455.555232</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3686722642.071789</v>
+        <v>4551151775.628071</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1268752975249335</v>
+        <v>0.138638246252714</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04363536320160568</v>
+        <v>0.0331962540636865</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1843361341.719365</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1744771481.255534</v>
+        <v>2259227930.928945</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1042092995960916</v>
+        <v>0.1604616675336978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04227407229473082</v>
+        <v>0.03531786976626801</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>872385705.5598027</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3113509532.008542</v>
+        <v>2590490584.596917</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09904392388370553</v>
+        <v>0.1361583092582524</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0336574698071553</v>
+        <v>0.03297012293955461</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1556754757.361533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2292210676.08503</v>
+        <v>1721724297.563735</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13716595354697</v>
+        <v>0.1228185741884392</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04190590369661908</v>
+        <v>0.04574666673082549</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1146105293.66658</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3640953228.048976</v>
+        <v>3381291147.92773</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1431259468971696</v>
+        <v>0.1486610013672253</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02348442298120612</v>
+        <v>0.01821913521690173</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1820476641.377488</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2944552431.270531</v>
+        <v>3271966063.714051</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1301106215650196</v>
+        <v>0.1235502118978314</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02849468775062538</v>
+        <v>0.03045950892252925</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1472276196.388121</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3199399507.30925</v>
+        <v>2896486188.35619</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1228709725506272</v>
+        <v>0.1134900572250265</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02997697856690474</v>
+        <v>0.03507939514506903</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1599699753.936962</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3348922100.891579</v>
+        <v>4564100275.076101</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1500818325005651</v>
+        <v>0.1164004615724321</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02704412609139237</v>
+        <v>0.02579229623786695</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1674461068.99287</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2730894071.279128</v>
+        <v>2297622128.313544</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1777775325864731</v>
+        <v>0.1947016654538116</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05030333344181436</v>
+        <v>0.05160297533915174</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1365447088.949435</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2007418067.260484</v>
+        <v>1921779594.868977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09772491441822762</v>
+        <v>0.09397756540072706</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03318914759876031</v>
+        <v>0.02929631867748771</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1724581872.132186</v>
+        <v>2141899879.475329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1390270691607784</v>
+        <v>0.1661102725032394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04834569173255702</v>
+        <v>0.04332858467104608</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3894831912.465723</v>
+        <v>4981989948.581252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1071051873322721</v>
+        <v>0.1434862798783371</v>
       </c>
       <c r="G4" t="n">
-        <v>0.035370154478975</v>
+        <v>0.02828066424189541</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2565867029.170779</v>
+        <v>3028517928.573183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1045163417750029</v>
+        <v>0.09161820544985426</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03763707000929158</v>
+        <v>0.0464817208214336</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2666038321.105987</v>
+        <v>2219463246.068123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1356425092678193</v>
+        <v>0.1154447306560628</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04995897337365809</v>
+        <v>0.05313692391899189</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2856420571.448205</v>
+        <v>1941428976.437421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012192146879747</v>
+        <v>0.06764584897152102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04354258238174713</v>
+        <v>0.03726860644088945</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2983065093.328042</v>
+        <v>2844547489.293544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1777262093546476</v>
+        <v>0.1443720917140795</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02536383246898627</v>
+        <v>0.03267441454688974</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1923160905.901235</v>
+        <v>2007670307.843641</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1292018860652119</v>
+        <v>0.121323645637443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0365773296098186</v>
+        <v>0.03033815228466553</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5357813551.387053</v>
+        <v>4509250090.252839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1516063194731432</v>
+        <v>0.2035169086876215</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03821853652999618</v>
+        <v>0.03469708845142886</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3700351801.156786</v>
+        <v>4051594476.420598</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1421431164914922</v>
+        <v>0.1601305857660066</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0404090019890214</v>
+        <v>0.04038936857692158</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2412578933.976859</v>
+        <v>2236767032.782561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1746187128322529</v>
+        <v>0.1516124092596361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04533609816534687</v>
+        <v>0.03654787931664489</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3420372490.702896</v>
+        <v>4264024432.436695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09272513931086257</v>
+        <v>0.0655296102396097</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02131722705868276</v>
+        <v>0.01961476221650051</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3530412068.14861</v>
+        <v>3779905236.071571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1275511832815618</v>
+        <v>0.180324500022453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03461834066564962</v>
+        <v>0.03221926722984028</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1194717036.093783</v>
+        <v>1397189871.320603</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08342904665184589</v>
+        <v>0.09171830951174907</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03665883872838439</v>
+        <v>0.03769099480861338</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2074858338.58498</v>
+        <v>2397386904.799479</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08787470615980723</v>
+        <v>0.09942086995631021</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03244524414615172</v>
+        <v>0.04991638251794826</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4345175141.45701</v>
+        <v>5277093237.826075</v>
       </c>
       <c r="F17" t="n">
-        <v>0.153356068181747</v>
+        <v>0.1167790254288135</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04130368496780076</v>
+        <v>0.04999160455583648</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2461201033.459961</v>
+        <v>3073109603.005028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1328732596477141</v>
+        <v>0.1664228183864115</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02912444642487896</v>
+        <v>0.0321051821545137</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1334792706.784634</v>
+        <v>1036219736.082378</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1451767646349645</v>
+        <v>0.1505670991427662</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02107191926928638</v>
+        <v>0.01672860880672598</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1954244437.192962</v>
+        <v>2730789393.852026</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102038945963183</v>
+        <v>0.1450419874015787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02439327446907268</v>
+        <v>0.02196181252471938</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2433933654.306795</v>
+        <v>2343371969.274279</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08734616140259377</v>
+        <v>0.1007137947160647</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04613743451566271</v>
+        <v>0.03069103478827779</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4034253815.566237</v>
+        <v>3527040981.627547</v>
       </c>
       <c r="F22" t="n">
-        <v>0.140148656341375</v>
+        <v>0.1027770635517035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03613667045419137</v>
+        <v>0.05586805348952231</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420742289.423065</v>
+        <v>963478938.2515223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1833162454259895</v>
+        <v>0.1656794026921836</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04320984916117358</v>
+        <v>0.04421485535619393</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2782337983.658746</v>
+        <v>3252458490.76407</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1223820113068735</v>
+        <v>0.1188974952469284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0275508813125915</v>
+        <v>0.0226919275453807</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1398658070.653778</v>
+        <v>1196892607.63442</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1030720487656201</v>
+        <v>0.07461395840626228</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03002713100876569</v>
+        <v>0.02043461054493761</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923318831.1988933</v>
+        <v>1160085461.885486</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1093741231045186</v>
+        <v>0.0850993440038196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03631576910387817</v>
+        <v>0.03657196468344096</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3327361495.261481</v>
+        <v>3451288720.771208</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1287707179854113</v>
+        <v>0.1389002393983837</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02152062194294119</v>
+        <v>0.01778755735813032</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2819482551.364919</v>
+        <v>3262392779.025879</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09466515696203896</v>
+        <v>0.1138524197545339</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03026893395655773</v>
+        <v>0.03770647409257063</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5380971884.261066</v>
+        <v>3874586828.303844</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09915685000686281</v>
+        <v>0.1064516423981169</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03168100802291697</v>
+        <v>0.04545599261677819</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1613136504.83822</v>
+        <v>1549627478.018883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1317686396247822</v>
+        <v>0.1152523605040641</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03194750095986305</v>
+        <v>0.03709627694371668</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1289526143.802684</v>
+        <v>1139584654.790145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1070911789871774</v>
+        <v>0.07937424576036826</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05225813067349203</v>
+        <v>0.04144047598187279</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1695865864.067148</v>
+        <v>1620059328.449227</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09699869589593174</v>
+        <v>0.07803360020844331</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03115793801587306</v>
+        <v>0.03051982394103935</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2812936101.540385</v>
+        <v>2651559927.669801</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1351537045178817</v>
+        <v>0.1888337938103857</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04183647871594678</v>
+        <v>0.049863042170478</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>995115043.317387</v>
+        <v>1213676007.158612</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1156007551132285</v>
+        <v>0.09436335594397038</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02587006310690859</v>
+        <v>0.02058835638981645</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176900462.862905</v>
+        <v>893863542.689028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0751053553932654</v>
+        <v>0.1099126290349954</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02980495686404203</v>
+        <v>0.0319399376976336</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1987484087.764236</v>
+        <v>3000045627.622454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1433049920185242</v>
+        <v>0.1790935126183963</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02566352929438743</v>
+        <v>0.02687116691005703</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2701493557.081553</v>
+        <v>2750677049.167922</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106082382875789</v>
+        <v>0.1109000978339818</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03710509528575086</v>
+        <v>0.0356817311084861</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1459985958.562039</v>
+        <v>1521663354.67967</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07987470993687805</v>
+        <v>0.07833530442778415</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02666854751152028</v>
+        <v>0.03585558250899298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1429511580.485313</v>
+        <v>2043263374.907533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1341898214986992</v>
+        <v>0.1415532684549869</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02054214665747371</v>
+        <v>0.03061773932374774</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1543959310.372146</v>
+        <v>1561490794.781304</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1472833970059364</v>
+        <v>0.1374615664126825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03657647842186623</v>
+        <v>0.04129269717768989</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2525982308.233492</v>
+        <v>2699240112.733101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1313988124843428</v>
+        <v>0.1224267405173899</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03994423440640013</v>
+        <v>0.03186315528478876</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3072658412.395154</v>
+        <v>3002439075.97779</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1103627249974839</v>
+        <v>0.1217163480274939</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02826059516317554</v>
+        <v>0.02949727905742911</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3076204091.333443</v>
+        <v>2362642816.818265</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1843757631094337</v>
+        <v>0.1390936624361725</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01730451167248225</v>
+        <v>0.02293461692405732</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1620069825.054167</v>
+        <v>1506880695.590268</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06228210411388369</v>
+        <v>0.06871113726902899</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0299704379777958</v>
+        <v>0.03642629626227143</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1716209358.623437</v>
+        <v>2167350057.436369</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1349385921028382</v>
+        <v>0.1912686373076875</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03973679465597519</v>
+        <v>0.03846004491126934</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4460649709.490699</v>
+        <v>4821356810.073472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1255266926555458</v>
+        <v>0.1317942240499075</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0456280840205151</v>
+        <v>0.05580397805818509</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3133484349.006784</v>
+        <v>4323938118.768051</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1547742398408337</v>
+        <v>0.1667900223083546</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04085825181500294</v>
+        <v>0.03915206458110289</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3879966101.536937</v>
+        <v>3516373987.354993</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1002912561583701</v>
+        <v>0.07855073870810203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03289999039842832</v>
+        <v>0.02855345117069927</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1923310015.718318</v>
+        <v>1906004336.825329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1856657690030649</v>
+        <v>0.1934562018168261</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02874516632624059</v>
+        <v>0.03630198817058927</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3710661583.630011</v>
+        <v>3470663746.677279</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1726326020412456</v>
+        <v>0.13577247451646</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04901021988420428</v>
+        <v>0.05240821264865098</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>938995490.365221</v>
+        <v>990328305.8583157</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1649351774088961</v>
+        <v>0.1300243329972392</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03637792677319881</v>
+        <v>0.04013017731607033</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4655259760.835409</v>
+        <v>3709729112.982431</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1155436991667063</v>
+        <v>0.08639688266051908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05943466152245418</v>
+        <v>0.05136030304424041</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3527143872.008528</v>
+        <v>2399743052.986886</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1356013244276362</v>
+        <v>0.2015353421957052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02501774789608823</v>
+        <v>0.02632543102914318</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4338229773.929186</v>
+        <v>3219747022.955949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1130662697922025</v>
+        <v>0.1126982260167773</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04708372231480228</v>
+        <v>0.03603390486018993</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4746791405.086514</v>
+        <v>3264315675.709825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1737602814268742</v>
+        <v>0.144223446360788</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02832615310214416</v>
+        <v>0.02801946305118868</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1224962210.918075</v>
+        <v>1797458043.087317</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1030322601285367</v>
+        <v>0.1107769308064054</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05129485670456727</v>
+        <v>0.04212869289798904</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4221818649.836433</v>
+        <v>3378737337.701967</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1450043365341144</v>
+        <v>0.1321393525720341</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01763713523638512</v>
+        <v>0.01990759960546984</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1744210007.737759</v>
+        <v>1295574809.984634</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1395697229950509</v>
+        <v>0.1540106810892024</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03521081720030145</v>
+        <v>0.0372794680091808</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3780869958.291242</v>
+        <v>4244811010.038617</v>
       </c>
       <c r="F59" t="n">
-        <v>0.126006931837245</v>
+        <v>0.1137965142622947</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04436951020079623</v>
+        <v>0.04930691117031685</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3603684522.288718</v>
+        <v>2941069822.570356</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1847352714307623</v>
+        <v>0.1673792757721222</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02784615326032618</v>
+        <v>0.02609561496954739</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2348328281.138674</v>
+        <v>2224221643.082023</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1683115827256979</v>
+        <v>0.10924710030485</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02805201560923278</v>
+        <v>0.03139693674078232</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2065558067.077058</v>
+        <v>1905289544.058729</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1182162613153646</v>
+        <v>0.1697452766912696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04534033118225086</v>
+        <v>0.04670722197546855</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3745777502.160646</v>
+        <v>5560933155.964163</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07946371757650954</v>
+        <v>0.09699933564175062</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03888245226520903</v>
+        <v>0.02977355831216658</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3922580561.232563</v>
+        <v>4810390406.5716</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1514152349431119</v>
+        <v>0.1297357627875018</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03089701522623596</v>
+        <v>0.02720911571005697</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5892848448.649546</v>
+        <v>4486057290.041845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1203688237250242</v>
+        <v>0.1358711374913765</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01946718539949461</v>
+        <v>0.02389346804619201</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3536675213.326254</v>
+        <v>3878868733.285992</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1166886228482984</v>
+        <v>0.1620890966351451</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03874651705688138</v>
+        <v>0.03806785922627577</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2676941447.556998</v>
+        <v>2764781765.898902</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07441892468944659</v>
+        <v>0.07282228808719114</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03758520508774563</v>
+        <v>0.03322484427634009</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4347706612.985641</v>
+        <v>6061791720.908734</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1103065248555653</v>
+        <v>0.1361242483085889</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04957132026181697</v>
+        <v>0.04135398631061604</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1587237650.326737</v>
+        <v>1889901062.585463</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1828973043656701</v>
+        <v>0.1724936599152472</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04673835871783411</v>
+        <v>0.03890263200769975</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2662408422.977983</v>
+        <v>2847496308.043324</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08775249960665307</v>
+        <v>0.09005168209775476</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03990157944677196</v>
+        <v>0.0350675047775556</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5648494340.426639</v>
+        <v>3426033229.64457</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1131094794775168</v>
+        <v>0.1643385517524794</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02354915875063752</v>
+        <v>0.02631584903089797</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2126041420.611212</v>
+        <v>1906181013.679676</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0982619321693992</v>
+        <v>0.09315551089849845</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04541809823738712</v>
+        <v>0.05183177159617647</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3411127574.307519</v>
+        <v>2243562407.294976</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1067995231978157</v>
+        <v>0.07402554795008714</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04877945756185458</v>
+        <v>0.04969659004242867</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3761233176.146199</v>
+        <v>3630396220.824028</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1483016458585122</v>
+        <v>0.1159695177225889</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03076995957391858</v>
+        <v>0.0336667202759106</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2392096015.479014</v>
+        <v>2216509371.783202</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1158331621249483</v>
+        <v>0.1236273920214042</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03402926082057092</v>
+        <v>0.03012523442824231</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4697087019.029202</v>
+        <v>4460080320.459373</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1064606577005329</v>
+        <v>0.1138970754680077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03151536547382685</v>
+        <v>0.0256921034638682</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1449626608.024913</v>
+        <v>2235491110.294312</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1836515920064787</v>
+        <v>0.1392180209792122</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02928534757192819</v>
+        <v>0.02536400131979767</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4680904912.745413</v>
+        <v>3171374099.888988</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08767951080131824</v>
+        <v>0.08717283288876818</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03781206028726908</v>
+        <v>0.0514971759765654</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1195893922.225399</v>
+        <v>1476556707.298462</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1731088426365143</v>
+        <v>0.1748007396066311</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02593686382444505</v>
+        <v>0.04050141375361658</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3399136303.14053</v>
+        <v>3728207461.484136</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016445133639153</v>
+        <v>0.1060595603217582</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03608448906678442</v>
+        <v>0.03266196784245124</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3305831307.102528</v>
+        <v>3548311475.564608</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09239561762886858</v>
+        <v>0.08705058278679051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03075384778701395</v>
+        <v>0.02080819564175138</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5630629249.816132</v>
+        <v>5690655589.556245</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1874661622352731</v>
+        <v>0.1852898985772292</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02735241669569219</v>
+        <v>0.02687257207418535</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2151978937.660426</v>
+        <v>1523222684.426746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1216182899012251</v>
+        <v>0.1041566763826556</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03054357821775901</v>
+        <v>0.03756140303544249</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1972100384.267602</v>
+        <v>2485631835.787626</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1036205823910385</v>
+        <v>0.1123343940540053</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03692804222943546</v>
+        <v>0.05122829111358566</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2650319880.843085</v>
+        <v>2728374510.839542</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1393862553425385</v>
+        <v>0.1482371128716019</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04932829353339773</v>
+        <v>0.05286201650294056</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2417559002.097472</v>
+        <v>1981369017.810499</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1315944498696449</v>
+        <v>0.164943331535236</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01902215972754481</v>
+        <v>0.01720852157104022</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432545369.567738</v>
+        <v>1035487215.661651</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1855625655327868</v>
+        <v>0.1500821145413409</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04403887450339721</v>
+        <v>0.0368386298256981</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3434069509.271012</v>
+        <v>2620172802.441198</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1331307532140494</v>
+        <v>0.1684226262448649</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03328120859215153</v>
+        <v>0.02823549471100124</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2799831880.145253</v>
+        <v>2887760996.808141</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1270631850960997</v>
+        <v>0.1559070483805753</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03684244365540269</v>
+        <v>0.03346352995582019</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1565420221.01636</v>
+        <v>1776346438.056234</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08502652652491968</v>
+        <v>0.1298649486245138</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03497914528087666</v>
+        <v>0.0459928201479276</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1881969210.563189</v>
+        <v>2062618827.767973</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1630284232559275</v>
+        <v>0.1346775283304276</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05657110930592723</v>
+        <v>0.04762453684648912</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2296023874.363894</v>
+        <v>1908132441.673984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07079952409230725</v>
+        <v>0.066416871721902</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04708473286673068</v>
+        <v>0.03561235390356426</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4551151775.628071</v>
+        <v>4489613581.385611</v>
       </c>
       <c r="F93" t="n">
-        <v>0.138638246252714</v>
+        <v>0.1229480053437342</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0331962540636865</v>
+        <v>0.03411023458216161</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2259227930.928945</v>
+        <v>2029800629.855581</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1604616675336978</v>
+        <v>0.1265343596095151</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03531786976626801</v>
+        <v>0.02910963281118777</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2590490584.596917</v>
+        <v>2968319671.423194</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361583092582524</v>
+        <v>0.1228245523262535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03297012293955461</v>
+        <v>0.05066883031580056</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1721724297.563735</v>
+        <v>1675146711.859467</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1228185741884392</v>
+        <v>0.111326888342215</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04574666673082549</v>
+        <v>0.0466403134690574</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3381291147.92773</v>
+        <v>5057622156.695664</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1486610013672253</v>
+        <v>0.145041092435817</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01821913521690173</v>
+        <v>0.01792244823959145</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3271966063.714051</v>
+        <v>2753823911.512337</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1235502118978314</v>
+        <v>0.1278821322953466</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03045950892252925</v>
+        <v>0.02816245963941452</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2896486188.35619</v>
+        <v>3054673909.332436</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1134900572250265</v>
+        <v>0.1082880929326521</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03507939514506903</v>
+        <v>0.02488651925303853</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4564100275.076101</v>
+        <v>3735794821.845974</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1164004615724321</v>
+        <v>0.1185675242254792</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579229623786695</v>
+        <v>0.01770168114300335</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2297622128.313544</v>
+        <v>2667630617.265779</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1947016654538116</v>
+        <v>0.2190456694158679</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05160297533915174</v>
+        <v>0.04629889192413111</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1921779594.868977</v>
+        <v>1750441964.727676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09397756540072706</v>
+        <v>0.08607312860857105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02929631867748771</v>
+        <v>0.03720090966579613</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2141899879.475329</v>
+        <v>2432306220.101406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1661102725032394</v>
+        <v>0.1571425196315864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04332858467104608</v>
+        <v>0.03174364354506124</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4981989948.581252</v>
+        <v>3825777308.345046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1434862798783371</v>
+        <v>0.1609434897081009</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02828066424189541</v>
+        <v>0.0325580282163593</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.244801045346</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3028517928.573183</v>
+        <v>4132326942.050557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09161820544985426</v>
+        <v>0.1096831611971851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0464817208214336</v>
+        <v>0.03934094804456528</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2219463246.068123</v>
+        <v>1847407691.522855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1154447306560628</v>
+        <v>0.1280892448257117</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05313692391899189</v>
+        <v>0.0501629101020146</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1941428976.437421</v>
+        <v>2340810555.486502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06764584897152102</v>
+        <v>0.0789838821501726</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03726860644088945</v>
+        <v>0.04734507077570623</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2844547489.293544</v>
+        <v>3212146673.436053</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1443720917140795</v>
+        <v>0.1334087860914786</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03267441454688974</v>
+        <v>0.02078559150596253</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2007670307.843641</v>
+        <v>1882053721.256944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.121323645637443</v>
+        <v>0.160662579755642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03033815228466553</v>
+        <v>0.02936709026393809</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4509250090.252839</v>
+        <v>4879182431.824749</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035169086876215</v>
+        <v>0.1614368668604083</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03469708845142886</v>
+        <v>0.03461038420427785</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.2592600697916</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4051594476.420598</v>
+        <v>3345385705.483293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1601305857660066</v>
+        <v>0.1720557007567001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04038936857692158</v>
+        <v>0.03879053854372832</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2236767032.782561</v>
+        <v>2989004675.513879</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1516124092596361</v>
+        <v>0.1236558683550455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03654787931664489</v>
+        <v>0.03607143143613639</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4264024432.436695</v>
+        <v>5014555936.369575</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0655296102396097</v>
+        <v>0.06638067220939407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01961476221650051</v>
+        <v>0.02718918025777246</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3779905236.071571</v>
+        <v>3424494514.95125</v>
       </c>
       <c r="F14" t="n">
-        <v>0.180324500022453</v>
+        <v>0.1619193696124381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03221926722984028</v>
+        <v>0.03617462892101977</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="n">
+        <v>169.5611483000192</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1397189871.320603</v>
+        <v>1414117835.966129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09171830951174907</v>
+        <v>0.1014983872108831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03769099480861338</v>
+        <v>0.04090591363513883</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2397386904.799479</v>
+        <v>1885569775.608683</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09942086995631021</v>
+        <v>0.08531255099900807</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04991638251794826</v>
+        <v>0.03979692812709321</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5277093237.826075</v>
+        <v>3633352635.566846</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1167790254288135</v>
+        <v>0.1153035957335275</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04999160455583648</v>
+        <v>0.03869487312978254</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>36</v>
+      </c>
+      <c r="K17" t="n">
+        <v>179.9510194720986</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3073109603.005028</v>
+        <v>3111728739.211968</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1664228183864115</v>
+        <v>0.1819916959354536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0321051821545137</v>
+        <v>0.02360623100029753</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1036219736.082378</v>
+        <v>996637378.0405257</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1505670991427662</v>
+        <v>0.1882141637748559</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01672860880672598</v>
+        <v>0.02669869815214238</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2730789393.852026</v>
+        <v>1818339521.08199</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1450419874015787</v>
+        <v>0.1595422464743459</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02196181252471938</v>
+        <v>0.02934656316604996</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2343371969.274279</v>
+        <v>2592429166.963944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1007137947160647</v>
+        <v>0.07363038609983821</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03069103478827779</v>
+        <v>0.03732821952178374</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3527040981.627547</v>
+        <v>2881442205.54879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1027770635517035</v>
+        <v>0.1030598812700026</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05586805348952231</v>
+        <v>0.04245340108255355</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>963478938.2515223</v>
+        <v>1084929346.26684</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1656794026921836</v>
+        <v>0.1856983230430976</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04421485535619393</v>
+        <v>0.05046850585768502</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3252458490.76407</v>
+        <v>2873179701.174483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1188974952469284</v>
+        <v>0.1391295943567126</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0226919275453807</v>
+        <v>0.03598578462450671</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1196892607.63442</v>
+        <v>1049472943.073014</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07461395840626228</v>
+        <v>0.08829481715565148</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02043461054493761</v>
+        <v>0.02737248161246148</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1160085461.885486</v>
+        <v>1008770426.727405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0850993440038196</v>
+        <v>0.1050973261209796</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03657196468344096</v>
+        <v>0.03344376262010588</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3451288720.771208</v>
+        <v>3348680707.152111</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1389002393983837</v>
+        <v>0.09768836657614743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01778755735813032</v>
+        <v>0.02257832817196681</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36</v>
+      </c>
+      <c r="K27" t="n">
+        <v>132.7098600079357</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3262392779.025879</v>
+        <v>3401525542.045735</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1138524197545339</v>
+        <v>0.1348350163445547</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03770647409257063</v>
+        <v>0.03340623481671014</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>36</v>
+      </c>
+      <c r="K28" t="n">
+        <v>167.5074123411468</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3874586828.303844</v>
+        <v>3597223655.671063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1064516423981169</v>
+        <v>0.1184281714815409</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04545599261677819</v>
+        <v>0.04254371607111123</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37</v>
+      </c>
+      <c r="K29" t="n">
+        <v>216.2024865628465</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1549627478.018883</v>
+        <v>1731121180.242047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1152523605040641</v>
+        <v>0.08423426869627271</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03709627694371668</v>
+        <v>0.02490051185715038</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1139584654.790145</v>
+        <v>979537734.2439679</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07937424576036826</v>
+        <v>0.07440033016580141</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04144047598187279</v>
+        <v>0.05111669779138962</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1620059328.449227</v>
+        <v>1755861577.85544</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07803360020844331</v>
+        <v>0.106167204473087</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03051982394103935</v>
+        <v>0.03290525790843737</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2651559927.669801</v>
+        <v>3053804615.77208</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888337938103857</v>
+        <v>0.150453010242895</v>
       </c>
       <c r="G33" t="n">
-        <v>0.049863042170478</v>
+        <v>0.05180262278488516</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1213676007.158612</v>
+        <v>1478086442.025466</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09436335594397038</v>
+        <v>0.1221612212913087</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02058835638981645</v>
+        <v>0.02313982825376865</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>893863542.689028</v>
+        <v>1341160490.320031</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1099126290349954</v>
+        <v>0.07737509749821903</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0319399376976336</v>
+        <v>0.03696088114419231</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3000045627.622454</v>
+        <v>2952530985.126022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1790935126183963</v>
+        <v>0.1529283231328263</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02687116691005703</v>
+        <v>0.02867998367028205</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2750677049.167922</v>
+        <v>2469785361.92251</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1109000978339818</v>
+        <v>0.08187844424272624</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0356817311084861</v>
+        <v>0.03939137524398754</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1521663354.67967</v>
+        <v>2107033211.94202</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07833530442778415</v>
+        <v>0.08137688142809124</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03585558250899298</v>
+        <v>0.03546034455267516</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2043263374.907533</v>
+        <v>1975280963.421927</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1415532684549869</v>
+        <v>0.1944069621601644</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03061773932374774</v>
+        <v>0.02012998914564413</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1561490794.781304</v>
+        <v>1463077356.932664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1374615664126825</v>
+        <v>0.1573764978284424</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04129269717768989</v>
+        <v>0.0380440967208478</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2699240112.733101</v>
+        <v>2603829180.747697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224267405173899</v>
+        <v>0.1238651260810951</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03186315528478876</v>
+        <v>0.03297819735950888</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3002439075.97779</v>
+        <v>2939856733.984205</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1217163480274939</v>
+        <v>0.1068307411344227</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02949727905742911</v>
+        <v>0.02862362142712867</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>34</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2362642816.818265</v>
+        <v>3001802262.13001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1390936624361725</v>
+        <v>0.2001170486590472</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02293461692405732</v>
+        <v>0.01842903042110244</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1506880695.590268</v>
+        <v>1682865693.942563</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06871113726902899</v>
+        <v>0.06808674166843182</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03642629626227143</v>
+        <v>0.03641034825572444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2167350057.436369</v>
+        <v>1553543864.472579</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1912686373076875</v>
+        <v>0.1632372700791673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03846004491126934</v>
+        <v>0.04374833801221486</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4821356810.073472</v>
+        <v>5060125320.172277</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1317942240499075</v>
+        <v>0.1769228123278904</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05580397805818509</v>
+        <v>0.04315581411292099</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>37</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4323938118.768051</v>
+        <v>4765496395.973303</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1667900223083546</v>
+        <v>0.1226959712731508</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03915206458110289</v>
+        <v>0.05917494454756713</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36</v>
+      </c>
+      <c r="K47" t="n">
+        <v>185.6658033347187</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3516373987.354993</v>
+        <v>2952944746.137555</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07855073870810203</v>
+        <v>0.1094955508358999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02855345117069927</v>
+        <v>0.02815461928062625</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>35</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1906004336.825329</v>
+        <v>1419543294.320126</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1934562018168261</v>
+        <v>0.1476590723367245</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03630198817058927</v>
+        <v>0.04374516778106939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3470663746.677279</v>
+        <v>4126770734.565047</v>
       </c>
       <c r="F50" t="n">
-        <v>0.13577247451646</v>
+        <v>0.1344577586571605</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05240821264865098</v>
+        <v>0.05207710668148709</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36</v>
+      </c>
+      <c r="K50" t="n">
+        <v>212.4619856171592</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>990328305.8583157</v>
+        <v>1522414639.951041</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1300243329972392</v>
+        <v>0.1786087677659661</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04013017731607033</v>
+        <v>0.04551997245126879</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3709729112.982431</v>
+        <v>4304333730.061875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08639688266051908</v>
+        <v>0.08998056804222623</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05136030304424041</v>
+        <v>0.0394431557126658</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>37</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.7425433185154</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2306,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2399743052.986886</v>
+        <v>3420772486.313671</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2015353421957052</v>
+        <v>0.1498495114799044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02632543102914318</v>
+        <v>0.02446112477519386</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="n">
+        <v>158.8609532597838</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3219747022.955949</v>
+        <v>3903869941.233232</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1126982260167773</v>
+        <v>0.1084120406578696</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03603390486018993</v>
+        <v>0.04363745989737699</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>16</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36</v>
+      </c>
+      <c r="K54" t="n">
+        <v>209.8033377639477</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3264315675.709825</v>
+        <v>3416650616.569975</v>
       </c>
       <c r="F55" t="n">
-        <v>0.144223446360788</v>
+        <v>0.2059307727576533</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02801946305118868</v>
+        <v>0.02639197960907608</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>17</v>
+      </c>
+      <c r="J55" t="n">
+        <v>37</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1797458043.087317</v>
+        <v>1242280702.772448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1107769308064054</v>
+        <v>0.1587312262498169</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04212869289798904</v>
+        <v>0.05183519987732965</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3378737337.701967</v>
+        <v>4179699803.562968</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1321393525720341</v>
+        <v>0.1173240245623764</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01990759960546984</v>
+        <v>0.0243493624930724</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>37</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1295574809.984634</v>
+        <v>1473579959.649204</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1540106810892024</v>
+        <v>0.1900461351966062</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0372794680091808</v>
+        <v>0.03898961357251907</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4244811010.038617</v>
+        <v>4721281230.665974</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137965142622947</v>
+        <v>0.1146724842470613</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04930691117031685</v>
+        <v>0.03584204438536027</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>37</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2941069822.570356</v>
+        <v>2721130205.708961</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1673792757721222</v>
+        <v>0.1363475201227829</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02609561496954739</v>
+        <v>0.03262889240024712</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2224221643.082023</v>
+        <v>3197701289.839289</v>
       </c>
       <c r="F61" t="n">
-        <v>0.10924710030485</v>
+        <v>0.1237302926264191</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03139693674078232</v>
+        <v>0.0221759606182979</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1905289544.058729</v>
+        <v>1451625983.805277</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1697452766912696</v>
+        <v>0.1416321781266785</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04670722197546855</v>
+        <v>0.04209720731139391</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5560933155.964163</v>
+        <v>3470988410.87015</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09699933564175062</v>
+        <v>0.06496685942969221</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02977355831216658</v>
+        <v>0.02868695345939256</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>18</v>
+      </c>
+      <c r="J63" t="n">
+        <v>36</v>
+      </c>
+      <c r="K63" t="n">
+        <v>162.8880215673397</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4810390406.5716</v>
+        <v>5467822433.948636</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1297357627875018</v>
+        <v>0.1585971120746597</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02720911571005697</v>
+        <v>0.02223380711375968</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>37</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4486057290.041845</v>
+        <v>3708408544.913685</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1358711374913765</v>
+        <v>0.129845090755048</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02389346804619201</v>
+        <v>0.02926377167319923</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30</v>
+      </c>
+      <c r="J65" t="n">
+        <v>36</v>
+      </c>
+      <c r="K65" t="n">
+        <v>204.1947329536722</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3878868733.285992</v>
+        <v>4075241272.65366</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1620890966351451</v>
+        <v>0.1518413071066807</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03806785922627577</v>
+        <v>0.04124149543379093</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>37</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2764781765.898902</v>
+        <v>2934116483.541225</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07282228808719114</v>
+        <v>0.1025979752974615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03322484427634009</v>
+        <v>0.0375096572280371</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6061791720.908734</v>
+        <v>4241824766.217893</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1361242483085889</v>
+        <v>0.1449947828764773</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04135398631061604</v>
+        <v>0.04870844176949497</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>37</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1889901062.585463</v>
+        <v>1564214736.792047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1724936599152472</v>
+        <v>0.166855436340427</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03890263200769975</v>
+        <v>0.05892423483425807</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2847496308.043324</v>
+        <v>3157166348.696777</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09005168209775476</v>
+        <v>0.09260733509387285</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0350675047775556</v>
+        <v>0.04508981572510148</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3426033229.64457</v>
+        <v>3741397296.299687</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1643385517524794</v>
+        <v>0.1427616045183426</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02631584903089797</v>
+        <v>0.02762377203744962</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>31</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36</v>
+      </c>
+      <c r="K71" t="n">
+        <v>208.8600722493485</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1906181013.679676</v>
+        <v>1664691617.3482</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09315551089849845</v>
+        <v>0.08138897583232854</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05183177159617647</v>
+        <v>0.05292584316633312</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2243562407.294976</v>
+        <v>2192854919.172819</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07402554795008714</v>
+        <v>0.07902356089164314</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04969659004242867</v>
+        <v>0.04890014917731327</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3630396220.824028</v>
+        <v>3271620077.788891</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1159695177225889</v>
+        <v>0.1809326681083317</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0336667202759106</v>
+        <v>0.02325074319755115</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>37</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2216509371.783202</v>
+        <v>2371396190.812624</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1236273920214042</v>
+        <v>0.1399974968945311</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03012523442824231</v>
+        <v>0.03039512401325875</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4460080320.459373</v>
+        <v>3686197140.453979</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1138970754680077</v>
+        <v>0.07882258606164025</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0256921034638682</v>
+        <v>0.02894849442403399</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>37</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2235491110.294312</v>
+        <v>1730190110.51277</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1392180209792122</v>
+        <v>0.1586696688689307</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02536400131979767</v>
+        <v>0.0269841356272857</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3171374099.888988</v>
+        <v>3672110470.124242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08717283288876818</v>
+        <v>0.1353790686719332</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0514971759765654</v>
+        <v>0.03994131101391388</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>37</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476556707.298462</v>
+        <v>1440132211.323743</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1748007396066311</v>
+        <v>0.1445937498465676</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04050141375361658</v>
+        <v>0.02631756601625407</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3728207461.484136</v>
+        <v>5320091963.959382</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1060595603217582</v>
+        <v>0.07480767621927632</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03266196784245124</v>
+        <v>0.02866454917763242</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>36</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.1131797508111</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3548311475.564608</v>
+        <v>4776971348.64394</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08705058278679051</v>
+        <v>0.09831158642020608</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02080819564175138</v>
+        <v>0.02356362101593778</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>36</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.4806346751826</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5690655589.556245</v>
+        <v>4780378297.375057</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1852898985772292</v>
+        <v>0.2155230279020009</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02687257207418535</v>
+        <v>0.02880922865652663</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>37</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.7584633275126</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1523222684.426746</v>
+        <v>1797392805.069866</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1041566763826556</v>
+        <v>0.1577572369343825</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03756140303544249</v>
+        <v>0.0386852699036747</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2485631835.787626</v>
+        <v>1744211620.050675</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123343940540053</v>
+        <v>0.08396742542979332</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05122829111358566</v>
+        <v>0.04314450618001332</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2728374510.839542</v>
+        <v>3563410591.823322</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1482371128716019</v>
+        <v>0.1259719051034314</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05286201650294056</v>
+        <v>0.03544683440535175</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1981369017.810499</v>
+        <v>1803614381.756011</v>
       </c>
       <c r="F86" t="n">
-        <v>0.164943331535236</v>
+        <v>0.1278827012782755</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01720852157104022</v>
+        <v>0.02647406839051756</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1035487215.661651</v>
+        <v>1175228164.634518</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1500821145413409</v>
+        <v>0.1444631745842324</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0368386298256981</v>
+        <v>0.04008743796347451</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2620172802.441198</v>
+        <v>2893054788.489267</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684226262448649</v>
+        <v>0.1073872056907184</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02823549471100124</v>
+        <v>0.02923868849963021</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2887760996.808141</v>
+        <v>2215158909.824247</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1559070483805753</v>
+        <v>0.1028780519136414</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03346352995582019</v>
+        <v>0.03021119574990909</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1776346438.056234</v>
+        <v>2167969434.118581</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1298649486245138</v>
+        <v>0.1253411438079751</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0459928201479276</v>
+        <v>0.04404119350600413</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2062618827.767973</v>
+        <v>2086495589.010848</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1346775283304276</v>
+        <v>0.1372986935117696</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04762453684648912</v>
+        <v>0.04490917446746467</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1908132441.673984</v>
+        <v>2499488914.128538</v>
       </c>
       <c r="F92" t="n">
-        <v>0.066416871721902</v>
+        <v>0.09177793128395949</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03561235390356426</v>
+        <v>0.03483164716747406</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4489613581.385611</v>
+        <v>5041310175.741043</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1229480053437342</v>
+        <v>0.1362879662817961</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03411023458216161</v>
+        <v>0.03833416199059505</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>37</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2029800629.855581</v>
+        <v>1643743243.730504</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1265343596095151</v>
+        <v>0.1422318996389713</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02910963281118777</v>
+        <v>0.02791067963365173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2968319671.423194</v>
+        <v>2480542217.270367</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1228245523262535</v>
+        <v>0.09562133966783845</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05066883031580056</v>
+        <v>0.04166845249658308</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1675146711.859467</v>
+        <v>1937514418.156108</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111326888342215</v>
+        <v>0.1089572904770831</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0466403134690574</v>
+        <v>0.02913577851251501</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5057622156.695664</v>
+        <v>3802593915.583089</v>
       </c>
       <c r="F97" t="n">
-        <v>0.145041092435817</v>
+        <v>0.148852507359058</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01792244823959145</v>
+        <v>0.02588693688969132</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>18</v>
+      </c>
+      <c r="J97" t="n">
+        <v>36</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.1909804922929</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2753823911.512337</v>
+        <v>3110060421.068009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1278821322953466</v>
+        <v>0.08780632513199917</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02816245963941452</v>
+        <v>0.0241390376633007</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3054673909.332436</v>
+        <v>2303252849.067582</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082880929326521</v>
+        <v>0.1239974473964478</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02488651925303853</v>
+        <v>0.02659497243899776</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3735794821.845974</v>
+        <v>4464453780.361209</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1185675242254792</v>
+        <v>0.1487960497571034</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01770168114300335</v>
+        <v>0.02241818867439457</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>36</v>
+      </c>
+      <c r="K100" t="n">
+        <v>198.9854637770637</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2667630617.265779</v>
+        <v>3177318253.458054</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2190456694158679</v>
+        <v>0.1542012410913298</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04629889192413111</v>
+        <v>0.04537784166489081</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
